--- a/biology/Zoologie/Cethosia_biblis/Cethosia_biblis.xlsx
+++ b/biology/Zoologie/Cethosia_biblis/Cethosia_biblis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cethosia biblis est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Heliconiinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente au nord de l'Inde, en Asie du Sud-Est et au sud de la Chine. Elle vit dans les forêts.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le cethosia biblis a une envergure moyenne de 8 à 9 cm[1]. C'est un insecte diurne.
+Le cethosia biblis a une envergure moyenne de 8 à 9 cm. C'est un insecte diurne.
 			Cethosia biblis
 			Pahang, Malaisie
 			Chiang Rai, Thaïlande
@@ -580,7 +596,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon figure sur une émission du Laos de 1965 (valeur faciale : 10 k). Il est aussi sur un timbre-poste d'Inde en  1981.
 L'Australie a aussi utilisé ce papillon Y&amp;T 2197 en 2004, valeur faciale 5c.
